--- a/forms/app/referral.xlsx
+++ b/forms/app/referral.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="217">
   <si>
     <t>form_title</t>
   </si>
@@ -687,15 +687,6 @@
   </si>
   <si>
     <t>°C</t>
-  </si>
-  <si>
-    <t>patient_dob</t>
-  </si>
-  <si>
-    <t>patient_phone</t>
-  </si>
-  <si>
-    <t>patient_household</t>
   </si>
 </sst>
 </file>
@@ -1277,13 +1268,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB72"/>
+  <dimension ref="A1:AB69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B66" sqref="B66"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2059,152 +2050,167 @@
       <c r="AB20" s="23"/>
     </row>
     <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="34"/>
+      <c r="Y21" s="34"/>
+      <c r="Z21" s="34"/>
+      <c r="AA21" s="34"/>
+      <c r="AB21" s="34"/>
     </row>
     <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
+      <c r="A22" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
+      <c r="A23" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="38"/>
+      <c r="W23" s="38"/>
+      <c r="X23" s="38"/>
+      <c r="Y23" s="38"/>
+      <c r="Z23" s="38"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="33"/>
-      <c r="S24" s="33"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
+      <c r="A24" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="38"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="38"/>
+      <c r="W24" s="38"/>
+      <c r="X24" s="38"/>
+      <c r="Y24" s="38"/>
+      <c r="Z24" s="38"/>
+      <c r="AA24" s="38"/>
+      <c r="AB24" s="38"/>
     </row>
     <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B25" s="35" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C25" s="36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D25" s="36" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
@@ -2236,7 +2242,7 @@
         <v>91</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>93</v>
@@ -2244,39 +2250,39 @@
       <c r="D26" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="E26" s="37"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
       <c r="O26" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
       <c r="S26" s="37"/>
-      <c r="T26" s="38"/>
-      <c r="U26" s="38"/>
-      <c r="V26" s="38"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="38"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="38"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="38"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="36"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="36"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="36"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="36"/>
     </row>
     <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>98</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>100</v>
@@ -2290,7 +2296,7 @@
       <c r="H27" s="36"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="K27" s="36" t="s">
         <v>105</v>
@@ -2298,7 +2304,7 @@
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
-      <c r="O27" s="36"/>
+      <c r="O27" s="37"/>
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
@@ -2315,106 +2321,106 @@
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="B28" s="35" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>200</v>
+        <v>125</v>
       </c>
       <c r="D28" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="37"/>
+        <v>207</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
+      <c r="L28" s="36"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
-      <c r="O28" s="36"/>
+      <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
       <c r="S28" s="37"/>
-      <c r="T28" s="38"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="38"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="36"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E29" s="36"/>
+        <v>205</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
+      <c r="G29" s="36" t="s">
+        <v>134</v>
+      </c>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
       <c r="K29" s="37"/>
-      <c r="L29" s="36"/>
+      <c r="L29" s="37"/>
       <c r="M29" s="37"/>
       <c r="N29" s="37"/>
-      <c r="O29" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="O29" s="37"/>
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
       <c r="S29" s="37"/>
-      <c r="T29" s="36"/>
-      <c r="U29" s="36"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="36"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="36"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="36"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="38"/>
+      <c r="W29" s="38"/>
+      <c r="X29" s="38"/>
+      <c r="Y29" s="38"/>
+      <c r="Z29" s="38"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
       <c r="B30" s="35" t="s">
-        <v>119</v>
+        <v>23</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K30" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
       <c r="L30" s="37"/>
       <c r="M30" s="37"/>
       <c r="N30" s="37"/>
@@ -2434,28 +2440,18 @@
       <c r="AB30" s="38"/>
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="36" t="s">
-        <v>80</v>
-      </c>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
       <c r="I31" s="37"/>
       <c r="J31" s="37"/>
       <c r="K31" s="37"/>
-      <c r="L31" s="36"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="37"/>
       <c r="N31" s="37"/>
       <c r="O31" s="37"/>
@@ -2474,25 +2470,13 @@
       <c r="AB31" s="36"/>
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="36" t="s">
-        <v>80</v>
-      </c>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="37"/>
-      <c r="G32" s="36" t="s">
-        <v>134</v>
-      </c>
+      <c r="G32" s="36"/>
       <c r="H32" s="37"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
@@ -2505,32 +2489,24 @@
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
       <c r="S32" s="37"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="38"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="38"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="38"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="38"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="36"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="36"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="36"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="36"/>
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>206</v>
-      </c>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="36"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="37"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
@@ -2543,21 +2519,21 @@
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
       <c r="S33" s="37"/>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
+      <c r="V33" s="36"/>
+      <c r="W33" s="36"/>
+      <c r="X33" s="36"/>
+      <c r="Y33" s="36"/>
+      <c r="Z33" s="36"/>
+      <c r="AA33" s="36"/>
+      <c r="AB33" s="36"/>
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="36"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
       <c r="E34" s="37"/>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -2585,12 +2561,12 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="37"/>
       <c r="F35" s="37"/>
-      <c r="G35" s="36"/>
+      <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
       <c r="J35" s="37"/>
@@ -2614,13 +2590,13 @@
       <c r="AB35" s="36"/>
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="36"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="37"/>
       <c r="F36" s="37"/>
-      <c r="G36" s="36"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -2645,14 +2621,14 @@
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
-      <c r="B37" s="39"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
       <c r="E37" s="37"/>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -2663,29 +2639,29 @@
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
       <c r="S37" s="37"/>
-      <c r="T37" s="36"/>
-      <c r="U37" s="36"/>
-      <c r="V37" s="36"/>
-      <c r="W37" s="36"/>
-      <c r="X37" s="36"/>
-      <c r="Y37" s="36"/>
-      <c r="Z37" s="36"/>
-      <c r="AA37" s="36"/>
-      <c r="AB37" s="36"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
+      <c r="I38" s="36"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
+      <c r="L38" s="36"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
@@ -2704,18 +2680,18 @@
       <c r="AB38" s="36"/>
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
+      <c r="G39" s="36"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
+      <c r="L39" s="36"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
@@ -2740,9 +2716,9 @@
       <c r="D40" s="36"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
       <c r="J40" s="37"/>
       <c r="K40" s="37"/>
       <c r="L40" s="37"/>
@@ -2753,15 +2729,15 @@
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
       <c r="S40" s="37"/>
-      <c r="T40" s="38"/>
-      <c r="U40" s="38"/>
-      <c r="V40" s="38"/>
-      <c r="W40" s="38"/>
-      <c r="X40" s="38"/>
-      <c r="Y40" s="38"/>
-      <c r="Z40" s="38"/>
-      <c r="AA40" s="38"/>
-      <c r="AB40" s="38"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
+      <c r="Y40" s="36"/>
+      <c r="Z40" s="36"/>
+      <c r="AA40" s="36"/>
+      <c r="AB40" s="36"/>
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
@@ -2770,12 +2746,12 @@
       <c r="D41" s="36"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="36"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
-      <c r="L41" s="36"/>
+      <c r="L41" s="37"/>
       <c r="M41" s="37"/>
       <c r="N41" s="37"/>
       <c r="O41" s="37"/>
@@ -2802,10 +2778,10 @@
       <c r="F42" s="37"/>
       <c r="G42" s="36"/>
       <c r="H42" s="37"/>
-      <c r="I42" s="36"/>
+      <c r="I42" s="37"/>
       <c r="J42" s="37"/>
       <c r="K42" s="37"/>
-      <c r="L42" s="36"/>
+      <c r="L42" s="37"/>
       <c r="M42" s="37"/>
       <c r="N42" s="37"/>
       <c r="O42" s="37"/>
@@ -2830,7 +2806,7 @@
       <c r="D43" s="36"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
-      <c r="G43" s="36"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="37"/>
       <c r="I43" s="37"/>
       <c r="J43" s="37"/>
@@ -2860,8 +2836,8 @@
       <c r="D44" s="36"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="37"/>
       <c r="J44" s="37"/>
       <c r="K44" s="37"/>
@@ -2890,7 +2866,7 @@
       <c r="D45" s="36"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
-      <c r="G45" s="36"/>
+      <c r="G45" s="37"/>
       <c r="H45" s="37"/>
       <c r="I45" s="37"/>
       <c r="J45" s="37"/>
@@ -3065,9 +3041,9 @@
     </row>
     <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="37"/>
+      <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -3095,9 +3071,9 @@
     </row>
     <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="36"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -3125,9 +3101,9 @@
     </row>
     <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -3143,26 +3119,26 @@
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
       <c r="S53" s="37"/>
-      <c r="T53" s="36"/>
-      <c r="U53" s="36"/>
-      <c r="V53" s="36"/>
-      <c r="W53" s="36"/>
-      <c r="X53" s="36"/>
-      <c r="Y53" s="36"/>
-      <c r="Z53" s="36"/>
-      <c r="AA53" s="36"/>
-      <c r="AB53" s="36"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="40"/>
+      <c r="AA53" s="40"/>
+      <c r="AB53" s="40"/>
     </row>
     <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="39"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="37"/>
@@ -3173,21 +3149,21 @@
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
       <c r="S54" s="37"/>
-      <c r="T54" s="36"/>
-      <c r="U54" s="36"/>
-      <c r="V54" s="36"/>
-      <c r="W54" s="36"/>
-      <c r="X54" s="36"/>
-      <c r="Y54" s="36"/>
-      <c r="Z54" s="36"/>
-      <c r="AA54" s="36"/>
-      <c r="AB54" s="36"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="40"/>
+      <c r="AA54" s="40"/>
+      <c r="AB54" s="40"/>
     </row>
     <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -3215,9 +3191,9 @@
     </row>
     <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="36"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -3233,15 +3209,15 @@
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
       <c r="S56" s="37"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="40"/>
-      <c r="Z56" s="40"/>
-      <c r="AA56" s="40"/>
-      <c r="AB56" s="40"/>
+      <c r="T56" s="36"/>
+      <c r="U56" s="36"/>
+      <c r="V56" s="36"/>
+      <c r="W56" s="36"/>
+      <c r="X56" s="36"/>
+      <c r="Y56" s="36"/>
+      <c r="Z56" s="36"/>
+      <c r="AA56" s="36"/>
+      <c r="AB56" s="36"/>
     </row>
     <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
@@ -3251,8 +3227,8 @@
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
       <c r="L57" s="37"/>
@@ -3263,15 +3239,15 @@
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
       <c r="S57" s="37"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="40"/>
-      <c r="Y57" s="40"/>
-      <c r="Z57" s="40"/>
-      <c r="AA57" s="40"/>
-      <c r="AB57" s="40"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
+      <c r="AA57" s="36"/>
+      <c r="AB57" s="36"/>
     </row>
     <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
@@ -3305,9 +3281,9 @@
     </row>
     <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="36"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="37"/>
+      <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -3353,15 +3329,15 @@
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
       <c r="S60" s="37"/>
-      <c r="T60" s="36"/>
-      <c r="U60" s="36"/>
-      <c r="V60" s="36"/>
-      <c r="W60" s="36"/>
-      <c r="X60" s="36"/>
-      <c r="Y60" s="36"/>
-      <c r="Z60" s="36"/>
-      <c r="AA60" s="36"/>
-      <c r="AB60" s="36"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+      <c r="X60" s="40"/>
+      <c r="Y60" s="40"/>
+      <c r="Z60" s="40"/>
+      <c r="AA60" s="40"/>
+      <c r="AB60" s="40"/>
     </row>
     <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
@@ -3383,26 +3359,26 @@
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
       <c r="S61" s="37"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
-      <c r="AA61" s="36"/>
-      <c r="AB61" s="36"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+      <c r="X61" s="40"/>
+      <c r="Y61" s="40"/>
+      <c r="Z61" s="40"/>
+      <c r="AA61" s="40"/>
+      <c r="AB61" s="40"/>
     </row>
     <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
-      <c r="B62" s="39"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
       <c r="J62" s="37"/>
       <c r="K62" s="37"/>
       <c r="L62" s="37"/>
@@ -3413,15 +3389,15 @@
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
       <c r="S62" s="37"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
-      <c r="AA62" s="36"/>
-      <c r="AB62" s="36"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+      <c r="X62" s="40"/>
+      <c r="Y62" s="40"/>
+      <c r="Z62" s="40"/>
+      <c r="AA62" s="40"/>
+      <c r="AB62" s="40"/>
     </row>
     <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
@@ -3491,8 +3467,8 @@
       <c r="E65" s="37"/>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="36"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
       <c r="J65" s="37"/>
       <c r="K65" s="37"/>
       <c r="L65" s="37"/>
@@ -3551,11 +3527,11 @@
       <c r="E67" s="37"/>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
       <c r="J67" s="37"/>
       <c r="K67" s="37"/>
-      <c r="L67" s="37"/>
+      <c r="L67" s="36"/>
       <c r="M67" s="37"/>
       <c r="N67" s="37"/>
       <c r="O67" s="37"/>
@@ -3580,12 +3556,12 @@
       <c r="D68" s="36"/>
       <c r="E68" s="37"/>
       <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
-      <c r="L68" s="37"/>
+      <c r="L68" s="36"/>
       <c r="M68" s="37"/>
       <c r="N68" s="37"/>
       <c r="O68" s="37"/>
@@ -3633,99 +3609,9 @@
       <c r="AA69" s="40"/>
       <c r="AB69" s="40"/>
     </row>
-    <row r="70" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="36"/>
-      <c r="I70" s="36"/>
-      <c r="J70" s="37"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="37"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="37"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="37"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-      <c r="X70" s="40"/>
-      <c r="Y70" s="40"/>
-      <c r="Z70" s="40"/>
-      <c r="AA70" s="40"/>
-      <c r="AB70" s="40"/>
-    </row>
-    <row r="71" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="41"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="37"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="37"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="37"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-      <c r="X71" s="40"/>
-      <c r="Y71" s="40"/>
-      <c r="Z71" s="40"/>
-      <c r="AA71" s="40"/>
-      <c r="AB71" s="40"/>
-    </row>
-    <row r="72" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="37"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="37"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="37"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-      <c r="X72" s="40"/>
-      <c r="Y72" s="40"/>
-      <c r="Z72" s="40"/>
-      <c r="AA72" s="40"/>
-      <c r="AB72" s="40"/>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F20 E24:F72 D21:E23">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F20 E21:F69">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3895,7 +3781,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.642152430555</v>
+        <v>44121.669000231479</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">

--- a/forms/app/referral.xlsx
+++ b/forms/app/referral.xlsx
@@ -3781,7 +3781,7 @@
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.669000231479</v>
+        <v>44121.724676967591</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">

--- a/forms/app/referral.xlsx
+++ b/forms/app/referral.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="180">
   <si>
     <t>form_title</t>
   </si>
@@ -71,9 +71,6 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>hospitals</t>
-  </si>
-  <si>
     <t>required</t>
   </si>
   <si>
@@ -170,9 +167,6 @@
     <t>_id</t>
   </si>
   <si>
-    <t>What is the passenger's name?</t>
-  </si>
-  <si>
     <t>db-object</t>
   </si>
   <si>
@@ -209,33 +203,6 @@
     <t>Date in the form</t>
   </si>
   <si>
-    <t>traveler</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>Nationality</t>
-  </si>
-  <si>
-    <t>nationality_other</t>
-  </si>
-  <si>
-    <t>Other Nationality</t>
-  </si>
-  <si>
     <t>end group</t>
   </si>
   <si>
@@ -269,9 +236,6 @@
     <t>label::es</t>
   </si>
   <si>
-    <t>temp_infra_note</t>
-  </si>
-  <si>
     <t>label::fr</t>
   </si>
   <si>
@@ -311,15 +275,6 @@
     <t>Upto 4 Months Ago</t>
   </si>
   <si>
-    <t>select_one temp_units</t>
-  </si>
-  <si>
-    <t>temp_infra_unit</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
     <t>between_5_and_6_months_ago</t>
   </si>
   <si>
@@ -332,36 +287,18 @@
     <t>Between 7 And 8 Months Ago</t>
   </si>
   <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>temp_infra</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>trimester1_choices</t>
   </si>
   <si>
     <t>eat_extra_meal</t>
   </si>
   <si>
-    <t>(selected(../temp_infra_unit, 'celsius') and . &gt; 32 and . &lt; 45) or (selected(../temp_infra_unit, 'fahrenheit') and . &gt; 90 and . &lt; 110)</t>
-  </si>
-  <si>
     <t>Eat a balanced diet daily, and one extra meal and water to help the baby grow well and for you to remain strong and healthy</t>
   </si>
   <si>
-    <t>Please check the temperature or the unit.</t>
-  </si>
-  <si>
     <t>take_iron_and_folic_acid</t>
   </si>
   <si>
-    <t>temp_clinical_note</t>
-  </si>
-  <si>
     <t>Take iron and folic acid tablets</t>
   </si>
   <si>
@@ -380,9 +317,6 @@
     <t>go_for_anc_visit</t>
   </si>
   <si>
-    <t>temp_clinical_unit</t>
-  </si>
-  <si>
     <t>Go for an antenantal care visit as soon as you know you are pregnant, and at least four times during the pregnancy</t>
   </si>
   <si>
@@ -395,27 +329,15 @@
     <t>trimester2_choices</t>
   </si>
   <si>
-    <t>temp_clinical</t>
-  </si>
-  <si>
-    <t>(selected(../temp_clinical_unit, 'celsius') and . &gt; 32 and . &lt; 45) or (selected(../temp_clinical_unit, 'fahrenheit') and . &gt; 90 and . &lt; 110)</t>
-  </si>
-  <si>
     <t>couselling_on_exclusive_breastfeeding</t>
   </si>
   <si>
     <t>Give your baby breast milk only (exclusive breastfeeding) for the first six months and continue breastfeeding for the first two years for good health</t>
   </si>
   <si>
-    <t>select_one hospitals</t>
-  </si>
-  <si>
     <t>referred_to</t>
   </si>
   <si>
-    <t>Patient referred to</t>
-  </si>
-  <si>
     <t>conditions</t>
   </si>
   <si>
@@ -428,30 +350,18 @@
     <t>text</t>
   </si>
   <si>
-    <t>refer_other</t>
-  </si>
-  <si>
-    <t>Please specify</t>
-  </si>
-  <si>
     <t>asthma</t>
   </si>
   <si>
     <t>Asthma</t>
   </si>
   <si>
-    <t>selected(../referred_to, 'other')</t>
-  </si>
-  <si>
     <t>high_blood_pressure</t>
   </si>
   <si>
     <t>High blood pressure</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>known_diabetes</t>
   </si>
   <si>
@@ -635,58 +545,37 @@
     <t>Feels sick when using it</t>
   </si>
   <si>
-    <t>**Temperature measured by infrared thermometer**</t>
-  </si>
-  <si>
-    <t>**Temperature measured by clinical thermometer**</t>
-  </si>
-  <si>
-    <t>** Température mesurée par un thermomètre à infrarouge **</t>
-  </si>
-  <si>
-    <t>Unité</t>
-  </si>
-  <si>
-    <t>Valeur</t>
-  </si>
-  <si>
-    <t>** La température mesurée par un thermomètre clinique **</t>
-  </si>
-  <si>
-    <t>Veuillez préciser</t>
-  </si>
-  <si>
-    <t>Remarques</t>
-  </si>
-  <si>
-    <t>Patient référé</t>
-  </si>
-  <si>
-    <t>label::sh</t>
-  </si>
-  <si>
-    <t>Parirenyatwa Hospital</t>
-  </si>
-  <si>
-    <t>parirenyatwa</t>
-  </si>
-  <si>
-    <t>harare_hospital</t>
-  </si>
-  <si>
-    <t>Harare Hospital</t>
-  </si>
-  <si>
-    <t>wilkings</t>
-  </si>
-  <si>
-    <t>Wilkings Clinic</t>
-  </si>
-  <si>
-    <t>temp_units</t>
-  </si>
-  <si>
-    <t>°C</t>
+    <t>referral_note</t>
+  </si>
+  <si>
+    <t>**Patient Referral Details**</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date_referral</t>
+  </si>
+  <si>
+    <t>Referral date</t>
+  </si>
+  <si>
+    <t>Institution referred to</t>
+  </si>
+  <si>
+    <t>referral_reason</t>
+  </si>
+  <si>
+    <t>Reason for treatment referral</t>
+  </si>
+  <si>
+    <t>What is the patients name?</t>
+  </si>
+  <si>
+    <t>patient_uuid</t>
+  </si>
+  <si>
+    <t>../inputs/contact/_id</t>
   </si>
 </sst>
 </file>
@@ -1268,34 +1157,34 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB69"/>
+  <dimension ref="A1:AA64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="I11" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:XFD23"/>
+      <selection pane="bottomRight" activeCell="J22" sqref="J22:J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="24" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" style="24" customWidth="1"/>
-    <col min="3" max="4" width="44.42578125" style="24" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="53.85546875" style="24" customWidth="1"/>
-    <col min="8" max="9" width="17.42578125" style="24" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="32.7109375" style="24" customWidth="1"/>
-    <col min="12" max="12" width="73.85546875" style="24" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="30" style="24" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="24" customWidth="1"/>
-    <col min="17" max="28" width="29.85546875" style="24" customWidth="1"/>
-    <col min="29" max="16384" width="14.42578125" style="24"/>
+    <col min="3" max="3" width="44.42578125" style="24" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" style="24" customWidth="1"/>
+    <col min="7" max="8" width="17.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" style="24" customWidth="1"/>
+    <col min="10" max="10" width="32.7109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="73.85546875" style="24" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="24" customWidth="1"/>
+    <col min="13" max="13" width="30" style="24" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="24" customWidth="1"/>
+    <col min="16" max="27" width="29.85546875" style="24" customWidth="1"/>
+    <col min="28" max="16384" width="14.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -1306,21 +1195,21 @@
         <v>4</v>
       </c>
       <c r="D1" s="25" t="s">
-        <v>208</v>
-      </c>
-      <c r="E1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="25" t="s">
         <v>16</v>
       </c>
       <c r="J1" s="25" t="s">
@@ -1338,10 +1227,10 @@
       <c r="N1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="25" t="s">
         <v>23</v>
       </c>
       <c r="Q1" s="25" t="s">
@@ -1350,12 +1239,10 @@
       <c r="R1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="T1" s="27" t="s">
-        <v>27</v>
-      </c>
+      <c r="T1" s="27"/>
       <c r="U1" s="27"/>
       <c r="V1" s="27"/>
       <c r="W1" s="27"/>
@@ -1363,27 +1250,26 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="27"/>
       <c r="AA1" s="27"/>
-      <c r="AB1" s="27"/>
-    </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="C2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="F2" s="30" t="s">
+        <v>31</v>
+      </c>
       <c r="G2" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="30" t="s">
-        <v>33</v>
-      </c>
+      <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="J2" s="30"/>
       <c r="K2" s="30"/>
@@ -1394,7 +1280,7 @@
       <c r="P2" s="30"/>
       <c r="Q2" s="30"/>
       <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
+      <c r="S2" s="31"/>
       <c r="T2" s="31"/>
       <c r="U2" s="31"/>
       <c r="V2" s="31"/>
@@ -1403,17 +1289,16 @@
       <c r="Y2" s="31"/>
       <c r="Z2" s="31"/>
       <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-    </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="30" t="s">
         <v>36</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>37</v>
       </c>
       <c r="D3" s="30"/>
       <c r="E3" s="30"/>
@@ -1425,14 +1310,14 @@
       <c r="K3" s="30"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="N3" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="30"/>
       <c r="P3" s="30"/>
       <c r="Q3" s="30"/>
       <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
+      <c r="S3" s="31"/>
       <c r="T3" s="31"/>
       <c r="U3" s="31"/>
       <c r="V3" s="31"/>
@@ -1441,17 +1326,16 @@
       <c r="Y3" s="31"/>
       <c r="Z3" s="31"/>
       <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>39</v>
-      </c>
-      <c r="C4" s="30" t="s">
-        <v>40</v>
       </c>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
@@ -1468,7 +1352,7 @@
       <c r="P4" s="30"/>
       <c r="Q4" s="30"/>
       <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
+      <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
       <c r="V4" s="31"/>
@@ -1477,19 +1361,18 @@
       <c r="Y4" s="31"/>
       <c r="Z4" s="31"/>
       <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="29"/>
+        <v>29</v>
+      </c>
+      <c r="D5" s="30"/>
       <c r="E5" s="30"/>
       <c r="F5" s="30"/>
       <c r="G5" s="30"/>
@@ -1504,7 +1387,7 @@
       <c r="P5" s="30"/>
       <c r="Q5" s="30"/>
       <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
+      <c r="S5" s="31"/>
       <c r="T5" s="31"/>
       <c r="U5" s="31"/>
       <c r="V5" s="31"/>
@@ -1513,25 +1396,24 @@
       <c r="Y5" s="31"/>
       <c r="Z5" s="31"/>
       <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>43</v>
-      </c>
       <c r="C6" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="29"/>
+        <v>177</v>
+      </c>
+      <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30" t="s">
-        <v>45</v>
-      </c>
+      <c r="G6" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
       <c r="K6" s="30"/>
@@ -1542,7 +1424,7 @@
       <c r="P6" s="30"/>
       <c r="Q6" s="30"/>
       <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
+      <c r="S6" s="31"/>
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
       <c r="V6" s="31"/>
@@ -1551,17 +1433,16 @@
       <c r="Y6" s="31"/>
       <c r="Z6" s="31"/>
       <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-    </row>
-    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="30"/>
       <c r="E7" s="30"/>
@@ -1578,7 +1459,7 @@
       <c r="P7" s="30"/>
       <c r="Q7" s="30"/>
       <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
+      <c r="S7" s="31"/>
       <c r="T7" s="31"/>
       <c r="U7" s="31"/>
       <c r="V7" s="31"/>
@@ -1587,17 +1468,16 @@
       <c r="Y7" s="31"/>
       <c r="Z7" s="31"/>
       <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-    </row>
-    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8" s="30"/>
       <c r="E8" s="30"/>
@@ -1614,7 +1494,7 @@
       <c r="P8" s="30"/>
       <c r="Q8" s="30"/>
       <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
+      <c r="S8" s="31"/>
       <c r="T8" s="31"/>
       <c r="U8" s="31"/>
       <c r="V8" s="31"/>
@@ -1623,17 +1503,16 @@
       <c r="Y8" s="31"/>
       <c r="Z8" s="31"/>
       <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-    </row>
-    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
@@ -1659,454 +1538,437 @@
       <c r="Y9" s="29"/>
       <c r="Z9" s="29"/>
       <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-    </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+    </row>
+    <row r="10" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+    </row>
+    <row r="11" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="30"/>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+    </row>
+    <row r="12" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+    </row>
+    <row r="13" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="23"/>
+      <c r="X13" s="23"/>
+      <c r="Y13" s="23"/>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+    </row>
+    <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="29"/>
-      <c r="W11" s="29"/>
-      <c r="X11" s="29"/>
-      <c r="Y11" s="29"/>
-      <c r="Z11" s="29"/>
-      <c r="AA11" s="29"/>
-      <c r="AB11" s="29"/>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="32" t="s">
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="23"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="23"/>
+      <c r="W14" s="23"/>
+      <c r="X14" s="23"/>
+      <c r="Y14" s="23"/>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+    </row>
+    <row r="15" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C15" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
-      <c r="AB12" s="29"/>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="29"/>
-      <c r="P13" s="29"/>
-      <c r="Q13" s="29"/>
-      <c r="R13" s="29"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="29"/>
-      <c r="W13" s="29"/>
-      <c r="X13" s="29"/>
-      <c r="Y13" s="29"/>
-      <c r="Z13" s="29"/>
-      <c r="AA13" s="29"/>
-      <c r="AB13" s="29"/>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="32" t="s">
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="23"/>
+      <c r="T15" s="23"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="23"/>
+      <c r="W15" s="23"/>
+      <c r="X15" s="23"/>
+      <c r="Y15" s="23"/>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="23"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="29"/>
-      <c r="P14" s="29"/>
-      <c r="Q14" s="29"/>
-      <c r="R14" s="29"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="29"/>
-      <c r="W14" s="29"/>
-      <c r="X14" s="29"/>
-      <c r="Y14" s="29"/>
-      <c r="Z14" s="29"/>
-      <c r="AA14" s="29"/>
-      <c r="AB14" s="29"/>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="29"/>
-      <c r="N15" s="29"/>
-      <c r="O15" s="29"/>
-      <c r="P15" s="29"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="29"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="29"/>
-      <c r="W15" s="29"/>
-      <c r="X15" s="29"/>
-      <c r="Y15" s="29"/>
-      <c r="Z15" s="29"/>
-      <c r="AA15" s="29"/>
-      <c r="AB15" s="29"/>
-    </row>
-    <row r="16" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="30"/>
-      <c r="S16" s="30"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-    </row>
-    <row r="17" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-    </row>
-    <row r="18" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="34"/>
-      <c r="W18" s="34"/>
-      <c r="X18" s="34"/>
-      <c r="Y18" s="34"/>
-      <c r="Z18" s="34"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="34"/>
-    </row>
-    <row r="19" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
-      <c r="AB19" s="23"/>
-    </row>
-    <row r="20" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-    </row>
-    <row r="21" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-    </row>
-    <row r="22" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>201</v>
-      </c>
+      <c r="B17" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="38"/>
+      <c r="W17" s="38"/>
+      <c r="X17" s="38"/>
+      <c r="Y17" s="38"/>
+      <c r="Z17" s="38"/>
+      <c r="AA17" s="38"/>
+    </row>
+    <row r="18" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+      <c r="Y18" s="38"/>
+      <c r="Z18" s="38"/>
+      <c r="AA18" s="38"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+      <c r="W19" s="38"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="38"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="38"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>176</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
+      <c r="Y20" s="38"/>
+      <c r="Z20" s="38"/>
+      <c r="AA20" s="38"/>
+    </row>
+    <row r="21" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="36"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+    </row>
+    <row r="22" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="36"/>
       <c r="I22" s="36"/>
-      <c r="J22" s="37"/>
+      <c r="J22" s="36"/>
       <c r="K22" s="37"/>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
       <c r="N22" s="37"/>
-      <c r="O22" s="36"/>
+      <c r="O22" s="37"/>
       <c r="P22" s="37"/>
       <c r="Q22" s="37"/>
       <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
+      <c r="S22" s="38"/>
       <c r="T22" s="38"/>
       <c r="U22" s="38"/>
       <c r="V22" s="38"/>
@@ -2115,80 +1977,56 @@
       <c r="Y22" s="38"/>
       <c r="Z22" s="38"/>
       <c r="AA22" s="38"/>
-      <c r="AB22" s="38"/>
-    </row>
-    <row r="23" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>202</v>
-      </c>
+    </row>
+    <row r="23" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
       <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="K23" s="36"/>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
       <c r="N23" s="37"/>
-      <c r="O23" s="36" t="s">
-        <v>51</v>
-      </c>
+      <c r="O23" s="37"/>
       <c r="P23" s="37"/>
       <c r="Q23" s="37"/>
       <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-    </row>
-    <row r="24" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B24" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>203</v>
-      </c>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="37"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="K24" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
       <c r="N24" s="37"/>
-      <c r="O24" s="36"/>
+      <c r="O24" s="37"/>
       <c r="P24" s="37"/>
       <c r="Q24" s="37"/>
       <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
+      <c r="S24" s="38"/>
       <c r="T24" s="38"/>
       <c r="U24" s="38"/>
       <c r="V24" s="38"/>
@@ -2197,36 +2035,27 @@
       <c r="Y24" s="38"/>
       <c r="Z24" s="38"/>
       <c r="AA24" s="38"/>
-      <c r="AB24" s="38"/>
-    </row>
-    <row r="25" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>200</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>204</v>
-      </c>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
       <c r="J25" s="37"/>
       <c r="K25" s="37"/>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
       <c r="N25" s="37"/>
-      <c r="O25" s="36"/>
+      <c r="O25" s="37"/>
       <c r="P25" s="37"/>
       <c r="Q25" s="37"/>
       <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
+      <c r="S25" s="38"/>
       <c r="T25" s="38"/>
       <c r="U25" s="38"/>
       <c r="V25" s="38"/>
@@ -2235,38 +2064,27 @@
       <c r="Y25" s="38"/>
       <c r="Z25" s="38"/>
       <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-    </row>
-    <row r="26" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="E26" s="36"/>
+    </row>
+    <row r="26" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
       <c r="H26" s="37"/>
       <c r="I26" s="37"/>
       <c r="J26" s="37"/>
       <c r="K26" s="37"/>
-      <c r="L26" s="36"/>
+      <c r="L26" s="37"/>
       <c r="M26" s="37"/>
       <c r="N26" s="37"/>
-      <c r="O26" s="36" t="s">
-        <v>52</v>
-      </c>
+      <c r="O26" s="37"/>
       <c r="P26" s="37"/>
       <c r="Q26" s="37"/>
       <c r="R26" s="37"/>
-      <c r="S26" s="37"/>
+      <c r="S26" s="36"/>
       <c r="T26" s="36"/>
       <c r="U26" s="36"/>
       <c r="V26" s="36"/>
@@ -2275,32 +2093,19 @@
       <c r="Y26" s="36"/>
       <c r="Z26" s="36"/>
       <c r="AA26" s="36"/>
-      <c r="AB26" s="36"/>
-    </row>
-    <row r="27" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>203</v>
-      </c>
+    </row>
+    <row r="27" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="37"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="37"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>105</v>
-      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
       <c r="L27" s="37"/>
       <c r="M27" s="37"/>
       <c r="N27" s="37"/>
@@ -2308,47 +2113,36 @@
       <c r="P27" s="37"/>
       <c r="Q27" s="37"/>
       <c r="R27" s="37"/>
-      <c r="S27" s="37"/>
-      <c r="T27" s="38"/>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-    </row>
-    <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>207</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
+      <c r="V27" s="36"/>
+      <c r="W27" s="36"/>
+      <c r="X27" s="36"/>
+      <c r="Y27" s="36"/>
+      <c r="Z27" s="36"/>
+      <c r="AA27" s="36"/>
+    </row>
+    <row r="28" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="37"/>
       <c r="H28" s="37"/>
       <c r="I28" s="37"/>
       <c r="J28" s="37"/>
       <c r="K28" s="37"/>
-      <c r="L28" s="36"/>
+      <c r="L28" s="37"/>
       <c r="M28" s="37"/>
       <c r="N28" s="37"/>
       <c r="O28" s="37"/>
       <c r="P28" s="37"/>
       <c r="Q28" s="37"/>
       <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
+      <c r="S28" s="36"/>
       <c r="T28" s="36"/>
       <c r="U28" s="36"/>
       <c r="V28" s="36"/>
@@ -2357,28 +2151,15 @@
       <c r="Y28" s="36"/>
       <c r="Z28" s="36"/>
       <c r="AA28" s="36"/>
-      <c r="AB28" s="36"/>
-    </row>
-    <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>205</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>80</v>
-      </c>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="35"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
       <c r="F29" s="37"/>
-      <c r="G29" s="36" t="s">
-        <v>134</v>
-      </c>
+      <c r="G29" s="37"/>
       <c r="H29" s="37"/>
       <c r="I29" s="37"/>
       <c r="J29" s="37"/>
@@ -2390,30 +2171,21 @@
       <c r="P29" s="37"/>
       <c r="Q29" s="37"/>
       <c r="R29" s="37"/>
-      <c r="S29" s="37"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-    </row>
-    <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>137</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>206</v>
-      </c>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="36"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="36"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="36"/>
+      <c r="AA29" s="36"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -2428,22 +2200,21 @@
       <c r="P30" s="37"/>
       <c r="Q30" s="37"/>
       <c r="R30" s="37"/>
-      <c r="S30" s="37"/>
-      <c r="T30" s="38"/>
-      <c r="U30" s="38"/>
-      <c r="V30" s="38"/>
-      <c r="W30" s="38"/>
-      <c r="X30" s="38"/>
-      <c r="Y30" s="38"/>
-      <c r="Z30" s="38"/>
-      <c r="AA30" s="38"/>
-      <c r="AB30" s="38"/>
-    </row>
-    <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
+      <c r="V30" s="36"/>
+      <c r="W30" s="36"/>
+      <c r="X30" s="36"/>
+      <c r="Y30" s="36"/>
+      <c r="Z30" s="36"/>
+      <c r="AA30" s="36"/>
+    </row>
+    <row r="31" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
       <c r="E31" s="37"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -2458,7 +2229,7 @@
       <c r="P31" s="37"/>
       <c r="Q31" s="37"/>
       <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
+      <c r="S31" s="36"/>
       <c r="T31" s="36"/>
       <c r="U31" s="36"/>
       <c r="V31" s="36"/>
@@ -2467,17 +2238,16 @@
       <c r="Y31" s="36"/>
       <c r="Z31" s="36"/>
       <c r="AA31" s="36"/>
-      <c r="AB31" s="36"/>
-    </row>
-    <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36"/>
-      <c r="D32" s="36"/>
+      <c r="D32" s="37"/>
       <c r="E32" s="37"/>
       <c r="F32" s="37"/>
       <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="H32" s="36"/>
       <c r="I32" s="37"/>
       <c r="J32" s="37"/>
       <c r="K32" s="37"/>
@@ -2488,29 +2258,28 @@
       <c r="P32" s="37"/>
       <c r="Q32" s="37"/>
       <c r="R32" s="37"/>
-      <c r="S32" s="37"/>
-      <c r="T32" s="36"/>
-      <c r="U32" s="36"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="36"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="36"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="36"/>
-    </row>
-    <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="38"/>
+      <c r="W32" s="38"/>
+      <c r="X32" s="38"/>
+      <c r="Y32" s="38"/>
+      <c r="Z32" s="38"/>
+      <c r="AA32" s="38"/>
+    </row>
+    <row r="33" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
+      <c r="D33" s="37"/>
       <c r="E33" s="37"/>
       <c r="F33" s="37"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="36"/>
       <c r="I33" s="37"/>
       <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
+      <c r="K33" s="36"/>
       <c r="L33" s="37"/>
       <c r="M33" s="37"/>
       <c r="N33" s="37"/>
@@ -2518,7 +2287,7 @@
       <c r="P33" s="37"/>
       <c r="Q33" s="37"/>
       <c r="R33" s="37"/>
-      <c r="S33" s="37"/>
+      <c r="S33" s="36"/>
       <c r="T33" s="36"/>
       <c r="U33" s="36"/>
       <c r="V33" s="36"/>
@@ -2527,20 +2296,19 @@
       <c r="Y33" s="36"/>
       <c r="Z33" s="36"/>
       <c r="AA33" s="36"/>
-      <c r="AB33" s="36"/>
-    </row>
-    <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="37"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
+      <c r="H34" s="36"/>
       <c r="I34" s="37"/>
       <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
+      <c r="K34" s="36"/>
       <c r="L34" s="37"/>
       <c r="M34" s="37"/>
       <c r="N34" s="37"/>
@@ -2548,7 +2316,7 @@
       <c r="P34" s="37"/>
       <c r="Q34" s="37"/>
       <c r="R34" s="37"/>
-      <c r="S34" s="37"/>
+      <c r="S34" s="36"/>
       <c r="T34" s="36"/>
       <c r="U34" s="36"/>
       <c r="V34" s="36"/>
@@ -2557,15 +2325,14 @@
       <c r="Y34" s="36"/>
       <c r="Z34" s="36"/>
       <c r="AA34" s="36"/>
-      <c r="AB34" s="36"/>
-    </row>
-    <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35"/>
-      <c r="B35" s="39"/>
-      <c r="C35" s="37"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
       <c r="I35" s="37"/>
@@ -2578,7 +2345,7 @@
       <c r="P35" s="37"/>
       <c r="Q35" s="37"/>
       <c r="R35" s="37"/>
-      <c r="S35" s="37"/>
+      <c r="S35" s="36"/>
       <c r="T35" s="36"/>
       <c r="U35" s="36"/>
       <c r="V35" s="36"/>
@@ -2587,16 +2354,15 @@
       <c r="Y35" s="36"/>
       <c r="Z35" s="36"/>
       <c r="AA35" s="36"/>
-      <c r="AB35" s="36"/>
-    </row>
-    <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="37"/>
+    </row>
+    <row r="36" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="37"/>
       <c r="I36" s="37"/>
       <c r="J36" s="37"/>
@@ -2608,7 +2374,7 @@
       <c r="P36" s="37"/>
       <c r="Q36" s="37"/>
       <c r="R36" s="37"/>
-      <c r="S36" s="37"/>
+      <c r="S36" s="36"/>
       <c r="T36" s="36"/>
       <c r="U36" s="36"/>
       <c r="V36" s="36"/>
@@ -2617,18 +2383,17 @@
       <c r="Y36" s="36"/>
       <c r="Z36" s="36"/>
       <c r="AA36" s="36"/>
-      <c r="AB36" s="36"/>
-    </row>
-    <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
+      <c r="D37" s="37"/>
       <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
+      <c r="F37" s="36"/>
       <c r="G37" s="37"/>
-      <c r="H37" s="36"/>
-      <c r="I37" s="36"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="37"/>
       <c r="K37" s="37"/>
       <c r="L37" s="37"/>
@@ -2638,37 +2403,36 @@
       <c r="P37" s="37"/>
       <c r="Q37" s="37"/>
       <c r="R37" s="37"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-    </row>
-    <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
+      <c r="V37" s="36"/>
+      <c r="W37" s="36"/>
+      <c r="X37" s="36"/>
+      <c r="Y37" s="36"/>
+      <c r="Z37" s="36"/>
+      <c r="AA37" s="36"/>
+    </row>
+    <row r="38" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
+      <c r="D38" s="37"/>
       <c r="E38" s="37"/>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
       <c r="H38" s="37"/>
-      <c r="I38" s="36"/>
+      <c r="I38" s="37"/>
       <c r="J38" s="37"/>
       <c r="K38" s="37"/>
-      <c r="L38" s="36"/>
+      <c r="L38" s="37"/>
       <c r="M38" s="37"/>
       <c r="N38" s="37"/>
       <c r="O38" s="37"/>
       <c r="P38" s="37"/>
       <c r="Q38" s="37"/>
       <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
+      <c r="S38" s="36"/>
       <c r="T38" s="36"/>
       <c r="U38" s="36"/>
       <c r="V38" s="36"/>
@@ -2677,28 +2441,27 @@
       <c r="Y38" s="36"/>
       <c r="Z38" s="36"/>
       <c r="AA38" s="36"/>
-      <c r="AB38" s="36"/>
-    </row>
-    <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
+      <c r="D39" s="37"/>
       <c r="E39" s="37"/>
       <c r="F39" s="37"/>
-      <c r="G39" s="36"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="37"/>
-      <c r="I39" s="36"/>
+      <c r="I39" s="37"/>
       <c r="J39" s="37"/>
       <c r="K39" s="37"/>
-      <c r="L39" s="36"/>
+      <c r="L39" s="37"/>
       <c r="M39" s="37"/>
       <c r="N39" s="37"/>
       <c r="O39" s="37"/>
       <c r="P39" s="37"/>
       <c r="Q39" s="37"/>
       <c r="R39" s="37"/>
-      <c r="S39" s="37"/>
+      <c r="S39" s="36"/>
       <c r="T39" s="36"/>
       <c r="U39" s="36"/>
       <c r="V39" s="36"/>
@@ -2707,16 +2470,15 @@
       <c r="Y39" s="36"/>
       <c r="Z39" s="36"/>
       <c r="AA39" s="36"/>
-      <c r="AB39" s="36"/>
-    </row>
-    <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="35"/>
       <c r="B40" s="35"/>
       <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
+      <c r="D40" s="37"/>
       <c r="E40" s="37"/>
       <c r="F40" s="37"/>
-      <c r="G40" s="36"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="37"/>
       <c r="I40" s="37"/>
       <c r="J40" s="37"/>
@@ -2728,7 +2490,7 @@
       <c r="P40" s="37"/>
       <c r="Q40" s="37"/>
       <c r="R40" s="37"/>
-      <c r="S40" s="37"/>
+      <c r="S40" s="36"/>
       <c r="T40" s="36"/>
       <c r="U40" s="36"/>
       <c r="V40" s="36"/>
@@ -2737,17 +2499,16 @@
       <c r="Y40" s="36"/>
       <c r="Z40" s="36"/>
       <c r="AA40" s="36"/>
-      <c r="AB40" s="36"/>
-    </row>
-    <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="35"/>
       <c r="B41" s="35"/>
       <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="D41" s="37"/>
       <c r="E41" s="37"/>
       <c r="F41" s="37"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="36"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="37"/>
       <c r="J41" s="37"/>
       <c r="K41" s="37"/>
@@ -2758,7 +2519,7 @@
       <c r="P41" s="37"/>
       <c r="Q41" s="37"/>
       <c r="R41" s="37"/>
-      <c r="S41" s="37"/>
+      <c r="S41" s="36"/>
       <c r="T41" s="36"/>
       <c r="U41" s="36"/>
       <c r="V41" s="36"/>
@@ -2767,16 +2528,15 @@
       <c r="Y41" s="36"/>
       <c r="Z41" s="36"/>
       <c r="AA41" s="36"/>
-      <c r="AB41" s="36"/>
-    </row>
-    <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="35"/>
       <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
+      <c r="D42" s="37"/>
       <c r="E42" s="37"/>
       <c r="F42" s="37"/>
-      <c r="G42" s="36"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="37"/>
       <c r="I42" s="37"/>
       <c r="J42" s="37"/>
@@ -2788,7 +2548,7 @@
       <c r="P42" s="37"/>
       <c r="Q42" s="37"/>
       <c r="R42" s="37"/>
-      <c r="S42" s="37"/>
+      <c r="S42" s="36"/>
       <c r="T42" s="36"/>
       <c r="U42" s="36"/>
       <c r="V42" s="36"/>
@@ -2797,13 +2557,12 @@
       <c r="Y42" s="36"/>
       <c r="Z42" s="36"/>
       <c r="AA42" s="36"/>
-      <c r="AB42" s="36"/>
-    </row>
-    <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="35"/>
       <c r="B43" s="35"/>
       <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
+      <c r="D43" s="37"/>
       <c r="E43" s="37"/>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -2818,7 +2577,7 @@
       <c r="P43" s="37"/>
       <c r="Q43" s="37"/>
       <c r="R43" s="37"/>
-      <c r="S43" s="37"/>
+      <c r="S43" s="36"/>
       <c r="T43" s="36"/>
       <c r="U43" s="36"/>
       <c r="V43" s="36"/>
@@ -2827,13 +2586,12 @@
       <c r="Y43" s="36"/>
       <c r="Z43" s="36"/>
       <c r="AA43" s="36"/>
-      <c r="AB43" s="36"/>
-    </row>
-    <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="35"/>
       <c r="B44" s="35"/>
       <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
+      <c r="D44" s="37"/>
       <c r="E44" s="37"/>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -2848,7 +2606,7 @@
       <c r="P44" s="37"/>
       <c r="Q44" s="37"/>
       <c r="R44" s="37"/>
-      <c r="S44" s="37"/>
+      <c r="S44" s="36"/>
       <c r="T44" s="36"/>
       <c r="U44" s="36"/>
       <c r="V44" s="36"/>
@@ -2857,13 +2615,12 @@
       <c r="Y44" s="36"/>
       <c r="Z44" s="36"/>
       <c r="AA44" s="36"/>
-      <c r="AB44" s="36"/>
-    </row>
-    <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="35"/>
       <c r="B45" s="35"/>
       <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
+      <c r="D45" s="37"/>
       <c r="E45" s="37"/>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -2878,7 +2635,7 @@
       <c r="P45" s="37"/>
       <c r="Q45" s="37"/>
       <c r="R45" s="37"/>
-      <c r="S45" s="37"/>
+      <c r="S45" s="36"/>
       <c r="T45" s="36"/>
       <c r="U45" s="36"/>
       <c r="V45" s="36"/>
@@ -2887,13 +2644,12 @@
       <c r="Y45" s="36"/>
       <c r="Z45" s="36"/>
       <c r="AA45" s="36"/>
-      <c r="AB45" s="36"/>
-    </row>
-    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -2908,7 +2664,7 @@
       <c r="P46" s="37"/>
       <c r="Q46" s="37"/>
       <c r="R46" s="37"/>
-      <c r="S46" s="37"/>
+      <c r="S46" s="36"/>
       <c r="T46" s="36"/>
       <c r="U46" s="36"/>
       <c r="V46" s="36"/>
@@ -2917,13 +2673,12 @@
       <c r="Y46" s="36"/>
       <c r="Z46" s="36"/>
       <c r="AA46" s="36"/>
-      <c r="AB46" s="36"/>
-    </row>
-    <row r="47" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
       <c r="E47" s="37"/>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -2938,7 +2693,7 @@
       <c r="P47" s="37"/>
       <c r="Q47" s="37"/>
       <c r="R47" s="37"/>
-      <c r="S47" s="37"/>
+      <c r="S47" s="36"/>
       <c r="T47" s="36"/>
       <c r="U47" s="36"/>
       <c r="V47" s="36"/>
@@ -2947,13 +2702,12 @@
       <c r="Y47" s="36"/>
       <c r="Z47" s="36"/>
       <c r="AA47" s="36"/>
-      <c r="AB47" s="36"/>
-    </row>
-    <row r="48" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
       <c r="E48" s="37"/>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -2968,26 +2722,25 @@
       <c r="P48" s="37"/>
       <c r="Q48" s="37"/>
       <c r="R48" s="37"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="36"/>
-      <c r="U48" s="36"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="36"/>
-      <c r="Y48" s="36"/>
-      <c r="Z48" s="36"/>
-      <c r="AA48" s="36"/>
-      <c r="AB48" s="36"/>
-    </row>
-    <row r="49" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+      <c r="U48" s="40"/>
+      <c r="V48" s="40"/>
+      <c r="W48" s="40"/>
+      <c r="X48" s="40"/>
+      <c r="Y48" s="40"/>
+      <c r="Z48" s="40"/>
+      <c r="AA48" s="40"/>
+    </row>
+    <row r="49" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="35"/>
       <c r="B49" s="35"/>
       <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
+      <c r="D49" s="37"/>
       <c r="E49" s="37"/>
       <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
       <c r="I49" s="37"/>
       <c r="J49" s="37"/>
       <c r="K49" s="37"/>
@@ -2998,22 +2751,21 @@
       <c r="P49" s="37"/>
       <c r="Q49" s="37"/>
       <c r="R49" s="37"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="36"/>
-      <c r="U49" s="36"/>
-      <c r="V49" s="36"/>
-      <c r="W49" s="36"/>
-      <c r="X49" s="36"/>
-      <c r="Y49" s="36"/>
-      <c r="Z49" s="36"/>
-      <c r="AA49" s="36"/>
-      <c r="AB49" s="36"/>
-    </row>
-    <row r="50" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+      <c r="U49" s="40"/>
+      <c r="V49" s="40"/>
+      <c r="W49" s="40"/>
+      <c r="X49" s="40"/>
+      <c r="Y49" s="40"/>
+      <c r="Z49" s="40"/>
+      <c r="AA49" s="40"/>
+    </row>
+    <row r="50" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="35"/>
       <c r="B50" s="35"/>
       <c r="C50" s="36"/>
-      <c r="D50" s="36"/>
+      <c r="D50" s="37"/>
       <c r="E50" s="37"/>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -3028,7 +2780,7 @@
       <c r="P50" s="37"/>
       <c r="Q50" s="37"/>
       <c r="R50" s="37"/>
-      <c r="S50" s="37"/>
+      <c r="S50" s="36"/>
       <c r="T50" s="36"/>
       <c r="U50" s="36"/>
       <c r="V50" s="36"/>
@@ -3037,12 +2789,11 @@
       <c r="Y50" s="36"/>
       <c r="Z50" s="36"/>
       <c r="AA50" s="36"/>
-      <c r="AB50" s="36"/>
-    </row>
-    <row r="51" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="35"/>
-      <c r="B51" s="39"/>
-      <c r="C51" s="37"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
       <c r="F51" s="37"/>
@@ -3058,7 +2809,7 @@
       <c r="P51" s="37"/>
       <c r="Q51" s="37"/>
       <c r="R51" s="37"/>
-      <c r="S51" s="37"/>
+      <c r="S51" s="36"/>
       <c r="T51" s="36"/>
       <c r="U51" s="36"/>
       <c r="V51" s="36"/>
@@ -3067,12 +2818,11 @@
       <c r="Y51" s="36"/>
       <c r="Z51" s="36"/>
       <c r="AA51" s="36"/>
-      <c r="AB51" s="36"/>
-    </row>
-    <row r="52" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="35"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="37"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
       <c r="F52" s="37"/>
@@ -3088,7 +2838,7 @@
       <c r="P52" s="37"/>
       <c r="Q52" s="37"/>
       <c r="R52" s="37"/>
-      <c r="S52" s="37"/>
+      <c r="S52" s="36"/>
       <c r="T52" s="36"/>
       <c r="U52" s="36"/>
       <c r="V52" s="36"/>
@@ -3097,12 +2847,11 @@
       <c r="Y52" s="36"/>
       <c r="Z52" s="36"/>
       <c r="AA52" s="36"/>
-      <c r="AB52" s="36"/>
-    </row>
-    <row r="53" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="35"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="37"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
       <c r="F53" s="37"/>
@@ -3118,27 +2867,26 @@
       <c r="P53" s="37"/>
       <c r="Q53" s="37"/>
       <c r="R53" s="37"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="40"/>
-      <c r="Z53" s="40"/>
-      <c r="AA53" s="40"/>
-      <c r="AB53" s="40"/>
-    </row>
-    <row r="54" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S53" s="36"/>
+      <c r="T53" s="36"/>
+      <c r="U53" s="36"/>
+      <c r="V53" s="36"/>
+      <c r="W53" s="36"/>
+      <c r="X53" s="36"/>
+      <c r="Y53" s="36"/>
+      <c r="Z53" s="36"/>
+      <c r="AA53" s="36"/>
+    </row>
+    <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="37"/>
       <c r="E54" s="37"/>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
       <c r="J54" s="37"/>
       <c r="K54" s="37"/>
       <c r="L54" s="37"/>
@@ -3148,22 +2896,21 @@
       <c r="P54" s="37"/>
       <c r="Q54" s="37"/>
       <c r="R54" s="37"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="40"/>
-      <c r="Z54" s="40"/>
-      <c r="AA54" s="40"/>
-      <c r="AB54" s="40"/>
-    </row>
-    <row r="55" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S54" s="36"/>
+      <c r="T54" s="36"/>
+      <c r="U54" s="36"/>
+      <c r="V54" s="36"/>
+      <c r="W54" s="36"/>
+      <c r="X54" s="36"/>
+      <c r="Y54" s="36"/>
+      <c r="Z54" s="36"/>
+      <c r="AA54" s="36"/>
+    </row>
+    <row r="55" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="35"/>
       <c r="B55" s="35"/>
       <c r="C55" s="36"/>
-      <c r="D55" s="36"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="37"/>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -3178,22 +2925,21 @@
       <c r="P55" s="37"/>
       <c r="Q55" s="37"/>
       <c r="R55" s="37"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="36"/>
-      <c r="U55" s="36"/>
-      <c r="V55" s="36"/>
-      <c r="W55" s="36"/>
-      <c r="X55" s="36"/>
-      <c r="Y55" s="36"/>
-      <c r="Z55" s="36"/>
-      <c r="AA55" s="36"/>
-      <c r="AB55" s="36"/>
-    </row>
-    <row r="56" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="40"/>
+      <c r="AA55" s="40"/>
+    </row>
+    <row r="56" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35"/>
       <c r="B56" s="35"/>
       <c r="C56" s="36"/>
-      <c r="D56" s="36"/>
+      <c r="D56" s="37"/>
       <c r="E56" s="37"/>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -3208,26 +2954,25 @@
       <c r="P56" s="37"/>
       <c r="Q56" s="37"/>
       <c r="R56" s="37"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="36"/>
-      <c r="U56" s="36"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="36"/>
-      <c r="Y56" s="36"/>
-      <c r="Z56" s="36"/>
-      <c r="AA56" s="36"/>
-      <c r="AB56" s="36"/>
-    </row>
-    <row r="57" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="40"/>
+      <c r="AA56" s="40"/>
+    </row>
+    <row r="57" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35"/>
       <c r="B57" s="35"/>
       <c r="C57" s="36"/>
-      <c r="D57" s="36"/>
+      <c r="D57" s="37"/>
       <c r="E57" s="37"/>
       <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
       <c r="I57" s="37"/>
       <c r="J57" s="37"/>
       <c r="K57" s="37"/>
@@ -3238,22 +2983,21 @@
       <c r="P57" s="37"/>
       <c r="Q57" s="37"/>
       <c r="R57" s="37"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
-      <c r="AA57" s="36"/>
-      <c r="AB57" s="36"/>
-    </row>
-    <row r="58" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+    </row>
+    <row r="58" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35"/>
       <c r="B58" s="35"/>
       <c r="C58" s="36"/>
-      <c r="D58" s="36"/>
+      <c r="D58" s="37"/>
       <c r="E58" s="37"/>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -3268,21 +3012,20 @@
       <c r="P58" s="37"/>
       <c r="Q58" s="37"/>
       <c r="R58" s="37"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="36"/>
-      <c r="U58" s="36"/>
-      <c r="V58" s="36"/>
-      <c r="W58" s="36"/>
-      <c r="X58" s="36"/>
-      <c r="Y58" s="36"/>
-      <c r="Z58" s="36"/>
-      <c r="AA58" s="36"/>
-      <c r="AB58" s="36"/>
-    </row>
-    <row r="59" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="40"/>
+      <c r="Z58" s="40"/>
+      <c r="AA58" s="40"/>
+    </row>
+    <row r="59" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="35"/>
-      <c r="B59" s="39"/>
-      <c r="C59" s="37"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
       <c r="F59" s="37"/>
@@ -3298,22 +3041,21 @@
       <c r="P59" s="37"/>
       <c r="Q59" s="37"/>
       <c r="R59" s="37"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="36"/>
-      <c r="U59" s="36"/>
-      <c r="V59" s="36"/>
-      <c r="W59" s="36"/>
-      <c r="X59" s="36"/>
-      <c r="Y59" s="36"/>
-      <c r="Z59" s="36"/>
-      <c r="AA59" s="36"/>
-      <c r="AB59" s="36"/>
-    </row>
-    <row r="60" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="40"/>
+      <c r="Z59" s="40"/>
+      <c r="AA59" s="40"/>
+    </row>
+    <row r="60" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="35"/>
       <c r="B60" s="35"/>
       <c r="C60" s="36"/>
-      <c r="D60" s="36"/>
+      <c r="D60" s="37"/>
       <c r="E60" s="37"/>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -3328,7 +3070,7 @@
       <c r="P60" s="37"/>
       <c r="Q60" s="37"/>
       <c r="R60" s="37"/>
-      <c r="S60" s="37"/>
+      <c r="S60" s="40"/>
       <c r="T60" s="40"/>
       <c r="U60" s="40"/>
       <c r="V60" s="40"/>
@@ -3337,13 +3079,12 @@
       <c r="Y60" s="40"/>
       <c r="Z60" s="40"/>
       <c r="AA60" s="40"/>
-      <c r="AB60" s="40"/>
-    </row>
-    <row r="61" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35"/>
       <c r="B61" s="35"/>
       <c r="C61" s="36"/>
-      <c r="D61" s="36"/>
+      <c r="D61" s="37"/>
       <c r="E61" s="37"/>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -3358,7 +3099,7 @@
       <c r="P61" s="37"/>
       <c r="Q61" s="37"/>
       <c r="R61" s="37"/>
-      <c r="S61" s="37"/>
+      <c r="S61" s="40"/>
       <c r="T61" s="40"/>
       <c r="U61" s="40"/>
       <c r="V61" s="40"/>
@@ -3367,20 +3108,19 @@
       <c r="Y61" s="40"/>
       <c r="Z61" s="40"/>
       <c r="AA61" s="40"/>
-      <c r="AB61" s="40"/>
-    </row>
-    <row r="62" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="35"/>
       <c r="B62" s="35"/>
       <c r="C62" s="36"/>
-      <c r="D62" s="36"/>
+      <c r="D62" s="37"/>
       <c r="E62" s="37"/>
       <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
+      <c r="G62" s="36"/>
       <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
+      <c r="I62" s="37"/>
       <c r="J62" s="37"/>
-      <c r="K62" s="37"/>
+      <c r="K62" s="36"/>
       <c r="L62" s="37"/>
       <c r="M62" s="37"/>
       <c r="N62" s="37"/>
@@ -3388,7 +3128,7 @@
       <c r="P62" s="37"/>
       <c r="Q62" s="37"/>
       <c r="R62" s="37"/>
-      <c r="S62" s="37"/>
+      <c r="S62" s="40"/>
       <c r="T62" s="40"/>
       <c r="U62" s="40"/>
       <c r="V62" s="40"/>
@@ -3397,20 +3137,19 @@
       <c r="Y62" s="40"/>
       <c r="Z62" s="40"/>
       <c r="AA62" s="40"/>
-      <c r="AB62" s="40"/>
-    </row>
-    <row r="63" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="35"/>
       <c r="B63" s="35"/>
       <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
+      <c r="D63" s="37"/>
       <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="36"/>
+      <c r="H63" s="36"/>
       <c r="I63" s="37"/>
       <c r="J63" s="37"/>
-      <c r="K63" s="37"/>
+      <c r="K63" s="36"/>
       <c r="L63" s="37"/>
       <c r="M63" s="37"/>
       <c r="N63" s="37"/>
@@ -3418,7 +3157,7 @@
       <c r="P63" s="37"/>
       <c r="Q63" s="37"/>
       <c r="R63" s="37"/>
-      <c r="S63" s="37"/>
+      <c r="S63" s="40"/>
       <c r="T63" s="40"/>
       <c r="U63" s="40"/>
       <c r="V63" s="40"/>
@@ -3427,13 +3166,12 @@
       <c r="Y63" s="40"/>
       <c r="Z63" s="40"/>
       <c r="AA63" s="40"/>
-      <c r="AB63" s="40"/>
-    </row>
-    <row r="64" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="35"/>
       <c r="B64" s="35"/>
       <c r="C64" s="36"/>
-      <c r="D64" s="36"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="37"/>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -3448,7 +3186,7 @@
       <c r="P64" s="37"/>
       <c r="Q64" s="37"/>
       <c r="R64" s="37"/>
-      <c r="S64" s="37"/>
+      <c r="S64" s="40"/>
       <c r="T64" s="40"/>
       <c r="U64" s="40"/>
       <c r="V64" s="40"/>
@@ -3457,161 +3195,10 @@
       <c r="Y64" s="40"/>
       <c r="Z64" s="40"/>
       <c r="AA64" s="40"/>
-      <c r="AB64" s="40"/>
-    </row>
-    <row r="65" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="37"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="37"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="37"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="37"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-      <c r="X65" s="40"/>
-      <c r="Y65" s="40"/>
-      <c r="Z65" s="40"/>
-      <c r="AA65" s="40"/>
-      <c r="AB65" s="40"/>
-    </row>
-    <row r="66" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="37"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="37"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="37"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="37"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-      <c r="X66" s="40"/>
-      <c r="Y66" s="40"/>
-      <c r="Z66" s="40"/>
-      <c r="AA66" s="40"/>
-      <c r="AB66" s="40"/>
-    </row>
-    <row r="67" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="37"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="37"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="37"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="37"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-      <c r="X67" s="40"/>
-      <c r="Y67" s="40"/>
-      <c r="Z67" s="40"/>
-      <c r="AA67" s="40"/>
-      <c r="AB67" s="40"/>
-    </row>
-    <row r="68" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="37"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="37"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="37"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="37"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-      <c r="X68" s="40"/>
-      <c r="Y68" s="40"/>
-      <c r="Z68" s="40"/>
-      <c r="AA68" s="40"/>
-      <c r="AB68" s="40"/>
-    </row>
-    <row r="69" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="36"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="37"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="37"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="37"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="37"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-      <c r="X69" s="40"/>
-      <c r="Y69" s="40"/>
-      <c r="Z69" s="40"/>
-      <c r="AA69" s="40"/>
-      <c r="AB69" s="40"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="E2:F20 E21:F69">
+    <dataValidation type="list" allowBlank="1" sqref="D2:E64">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3625,11 +3212,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3662,48 +3249,18 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>209</v>
-      </c>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>212</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="8"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>215</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>216</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3774,22 +3331,22 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="9">
         <f ca="1">NOW()</f>
-        <v>44121.724676967591</v>
+        <v>44122.415280208334</v>
       </c>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3845,22 +3402,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="H1" s="16" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -3879,13 +3436,13 @@
     </row>
     <row r="2" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -3910,13 +3467,13 @@
     </row>
     <row r="3" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -3966,13 +3523,13 @@
     </row>
     <row r="5" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -3997,13 +3554,13 @@
     </row>
     <row r="6" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -4028,13 +3585,13 @@
     </row>
     <row r="7" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -4059,13 +3616,13 @@
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -4090,13 +3647,13 @@
     </row>
     <row r="9" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -4146,13 +3703,13 @@
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -4177,13 +3734,13 @@
     </row>
     <row r="12" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -4208,13 +3765,13 @@
     </row>
     <row r="13" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -4239,13 +3796,13 @@
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -4270,13 +3827,13 @@
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -4301,13 +3858,13 @@
     </row>
     <row r="16" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -4357,13 +3914,13 @@
     </row>
     <row r="18" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -4388,13 +3945,13 @@
     </row>
     <row r="19" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -4419,13 +3976,13 @@
     </row>
     <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -4450,13 +4007,13 @@
     </row>
     <row r="21" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -4481,13 +4038,13 @@
     </row>
     <row r="22" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -4512,13 +4069,13 @@
     </row>
     <row r="23" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -4568,13 +4125,13 @@
     </row>
     <row r="25" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -4599,13 +4156,13 @@
     </row>
     <row r="26" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -4630,13 +4187,13 @@
     </row>
     <row r="27" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -4661,13 +4218,13 @@
     </row>
     <row r="28" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -4692,13 +4249,13 @@
     </row>
     <row r="29" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -4748,13 +4305,13 @@
     </row>
     <row r="31" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -4779,13 +4336,13 @@
     </row>
     <row r="32" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -4835,121 +4392,121 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ref="B34:B42" si="0">SUBSTITUTE(LOWER(SUBSTITUTE(SUBSTITUTE(C34, "(", ""), ")", "")), " ", "_")</f>
         <v>combined_oral_contraceptives</v>
       </c>
       <c r="C34" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>progesterone_only_pills</v>
       </c>
       <c r="C35" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>injectibles</v>
       </c>
       <c r="C36" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>implants_1_rod</v>
       </c>
       <c r="C37" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>implants_2_rods</v>
       </c>
       <c r="C38" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>iud</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>condoms</v>
       </c>
       <c r="C40" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>tubal_ligation</v>
       </c>
       <c r="C41" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>cycle_beads</v>
       </c>
       <c r="C42" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
         <v>48</v>
-      </c>
-      <c r="C43" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4960,26 +4517,26 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B45" t="str">
         <f t="shared" si="1"/>
         <v>wants_to_get_pregnant</v>
       </c>
       <c r="C45" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B46" t="str">
         <f t="shared" si="1"/>
         <v>did_not_want_fp</v>
       </c>
       <c r="C46" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4990,13 +4547,13 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="19" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -5021,13 +4578,13 @@
     </row>
     <row r="49" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="19" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C49" s="19" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
@@ -5053,226 +4610,226 @@
     <row r="50" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B51" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="C53" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B54" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C55" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
     </row>
     <row r="56" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" t="s">
         <v>48</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="58" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="19" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="C58" s="19" t="s">
-        <v>174</v>
+        <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="19" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>176</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>177</v>
+        <v>147</v>
       </c>
       <c r="C60" s="19" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
     </row>
     <row r="61" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="19" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="B61" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="C61" s="19" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C63" s="19" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="C65" s="19" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="C66" s="19" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B72" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
+        <v>46</v>
+      </c>
+      <c r="C74" t="s">
         <v>48</v>
-      </c>
-      <c r="C74" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
